--- a/default_users.xlsx
+++ b/default_users.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,25 +463,325 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>220086072</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lev Kalashnikov</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>@lkalashnikov</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>45095.53941104792</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1888872438</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Блатной Бандит</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>@babodoy</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>45094.59137683633</v>
-      </c>
-      <c r="G2" t="b">
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>45095.53423905007</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>73219273177386</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50279025302606</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66544384681908</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>78064667808028</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>90715183894362</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55048665129303</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>50521318620653</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>91994565308695</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>89212286746784</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>45095.52810380809</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>804830369</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Andrey Volyanskiy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>@a_volya</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>45094.6453178914</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
